--- a/Data/catalog.xlsx
+++ b/Data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itachi\Documents\GitHub\Library-Management-System\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E64DA7-DC66-4006-95E6-1EE6B667FB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A89A1D1-97D1-441A-BA5B-B3C95E4F4D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12108" yWindow="4032" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Isbn</t>
   </si>
@@ -103,16 +103,26 @@
   </si>
   <si>
     <t>Fiction</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,8 +467,14 @@
       <c r="A2">
         <v>12345678901</v>
       </c>
+      <c r="B2" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -467,8 +484,14 @@
       <c r="A3">
         <v>98765432101</v>
       </c>
+      <c r="B3" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -478,8 +501,14 @@
       <c r="A4">
         <v>30920288291</v>
       </c>
+      <c r="B4" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -489,8 +518,14 @@
       <c r="A5">
         <v>14974539935</v>
       </c>
+      <c r="B5" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -500,8 +535,14 @@
       <c r="A6">
         <v>90069909161</v>
       </c>
+      <c r="B6" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -511,8 +552,14 @@
       <c r="A7">
         <v>10998213313</v>
       </c>
+      <c r="B7" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -522,8 +569,14 @@
       <c r="A8">
         <v>27931229109</v>
       </c>
+      <c r="B8" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -533,8 +586,14 @@
       <c r="A9">
         <v>12063390540</v>
       </c>
+      <c r="B9" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C9" t="s">
         <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -544,8 +603,14 @@
       <c r="A10">
         <v>50680991225</v>
       </c>
+      <c r="B10" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C10" t="s">
         <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -555,8 +620,14 @@
       <c r="A11">
         <v>97743045345</v>
       </c>
+      <c r="B11" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C11" t="s">
         <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -566,8 +637,14 @@
       <c r="A12">
         <v>18533792071</v>
       </c>
+      <c r="B12" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C12" t="s">
         <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -577,8 +654,14 @@
       <c r="A13">
         <v>87927505544</v>
       </c>
+      <c r="B13" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C13" t="s">
         <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -588,8 +671,14 @@
       <c r="A14">
         <v>33226486961</v>
       </c>
+      <c r="B14" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C14" t="s">
         <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -599,8 +688,14 @@
       <c r="A15">
         <v>22096364365</v>
       </c>
+      <c r="B15" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C15" t="s">
         <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -610,14 +705,21 @@
       <c r="A16">
         <v>35270756718</v>
       </c>
+      <c r="B16" s="1">
+        <v>213535704</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>